--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H2">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>1232.989797177242</v>
+        <v>794.439276976982</v>
       </c>
       <c r="R2">
-        <v>11096.90817459518</v>
+        <v>7149.953492792838</v>
       </c>
       <c r="S2">
-        <v>0.1934430045948139</v>
+        <v>0.1077386139029793</v>
       </c>
       <c r="T2">
-        <v>0.1934430045948139</v>
+        <v>0.1077386139029793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H3">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>9.849219126682666</v>
+        <v>4.699595015689223</v>
       </c>
       <c r="R3">
-        <v>88.642972140144</v>
+        <v>42.29635514120301</v>
       </c>
       <c r="S3">
-        <v>0.001545237880426939</v>
+        <v>0.000637339904469977</v>
       </c>
       <c r="T3">
-        <v>0.001545237880426939</v>
+        <v>0.000637339904469977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H4">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>161.8208162982133</v>
+        <v>77.21346148646278</v>
       </c>
       <c r="R4">
-        <v>1456.38734668392</v>
+        <v>694.9211533781649</v>
       </c>
       <c r="S4">
-        <v>0.02538796750984954</v>
+        <v>0.01047137466170823</v>
       </c>
       <c r="T4">
-        <v>0.02538796750984954</v>
+        <v>0.01047137466170823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J5">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>3083.654851199924</v>
+        <v>4163.977288178527</v>
       </c>
       <c r="R5">
-        <v>27752.89366079932</v>
+        <v>37475.79559360674</v>
       </c>
       <c r="S5">
-        <v>0.4837926971619041</v>
+        <v>0.5647016132673405</v>
       </c>
       <c r="T5">
-        <v>0.483792697161904</v>
+        <v>0.5647016132673404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J6">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
         <v>24.63247661096434</v>
@@ -818,10 +818,10 @@
         <v>221.6922894986791</v>
       </c>
       <c r="S6">
-        <v>0.003864573978750819</v>
+        <v>0.00334055599209724</v>
       </c>
       <c r="T6">
-        <v>0.003864573978750818</v>
+        <v>0.003340555992097239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J7">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>404.7069540603717</v>
@@ -880,10 +880,10 @@
         <v>3642.362586543346</v>
       </c>
       <c r="S7">
-        <v>0.06349422302851362</v>
+        <v>0.05488470614554537</v>
       </c>
       <c r="T7">
-        <v>0.06349422302851361</v>
+        <v>0.05488470614554536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>1278.286842915206</v>
+        <v>1726.1196983849</v>
       </c>
       <c r="R8">
-        <v>11504.58158623685</v>
+        <v>15535.0772854641</v>
       </c>
       <c r="S8">
-        <v>0.2005496300080011</v>
+        <v>0.2340893119512848</v>
       </c>
       <c r="T8">
-        <v>0.200549630008001</v>
+        <v>0.2340893119512848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>10.21105547787222</v>
@@ -1004,10 +1004,10 @@
         <v>91.89949930085001</v>
       </c>
       <c r="S9">
-        <v>0.001602006161158844</v>
+        <v>0.001384781688864374</v>
       </c>
       <c r="T9">
-        <v>0.001602006161158844</v>
+        <v>0.001384781688864374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
         <v>167.7657194385278</v>
@@ -1066,10 +1066,10 @@
         <v>1509.89147494675</v>
       </c>
       <c r="S10">
-        <v>0.02632065967658145</v>
+        <v>0.0227517024857103</v>
       </c>
       <c r="T10">
-        <v>0.02632065967658144</v>
+        <v>0.0227517024857103</v>
       </c>
     </row>
   </sheetData>
